--- a/Classes/Class_8/Balance_table.xlsx
+++ b/Classes/Class_8/Balance_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonny\Google Drive\Academic\USP\Teaching\FLS6441 - Methods III\Website\Methods_III\Classes\Class_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE73E474-CCAF-4D5C-AFE9-6E0A000FBE50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABEFAEE-3402-4283-8D29-A1EDC820AB69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{712C1185-89E7-40F8-833C-6FBA235AB903}"/>
   </bookViews>
@@ -108,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,20 +116,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,7 +475,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.06640625" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
     <col min="2" max="2" width="15.9296875" customWidth="1"/>
     <col min="3" max="3" width="10.1328125" customWidth="1"/>
     <col min="4" max="4" width="13.9296875" customWidth="1"/>
@@ -461,175 +483,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Classes/Class_8/Balance_table.xlsx
+++ b/Classes/Class_8/Balance_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonny\Google Drive\Academic\USP\Teaching\FLS6441 - Methods III\Website\Methods_III\Classes\Class_8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonny\Google Drive\Academic\USP\Teaching\FLS6441 - Methods III\2020\Methods_III\Classes\Class_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABEFAEE-3402-4283-8D29-A1EDC820AB69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D8E444-3603-432D-AD7C-1A7F46962169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{712C1185-89E7-40F8-833C-6FBA235AB903}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
   <si>
     <t>Observed</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>Balances time-invariant 'fixed' unit characteristics</t>
+  </si>
+  <si>
+    <t>Balances 'fixed' cross-sectional characteristics</t>
+  </si>
+  <si>
+    <t>Balances Overall Time Trends</t>
+  </si>
+  <si>
+    <t>Balances Unit-specific trends</t>
+  </si>
+  <si>
+    <t>Time-invariant characteristics</t>
+  </si>
+  <si>
+    <t>Time-varying characteristics</t>
   </si>
 </sst>
 </file>
@@ -135,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,14 +159,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19065812-297E-497E-985A-051F1D9C7367}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="A1:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -480,20 +498,30 @@
     <col min="3" max="3" width="10.1328125" customWidth="1"/>
     <col min="4" max="4" width="13.9296875" customWidth="1"/>
     <col min="5" max="5" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" customWidth="1"/>
+    <col min="9" max="10" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E1" s="7"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -507,172 +535,287 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="5"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="5"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
